--- a/Gestion/08-B Plan de Adquisición y Capacitación.xlsx
+++ b/Gestion/08-B Plan de Adquisición y Capacitación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packo/Documents/GitHub/ProyectoLibraryITSL/Gestion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22E37F6-67DD-F941-A115-DF8D4CC07E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07275AE-3154-534B-8026-8D63FD54D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial Versiones" sheetId="1" r:id="rId1"/>
@@ -1194,6 +1194,10 @@
     <xf numFmtId="17" fontId="18" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1217,10 +1221,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1234,6 +1234,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,10 +1266,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1889,10 +1889,10 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="64" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1925,8 +1925,8 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1957,12 +1957,12 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1987,12 +1987,12 @@
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="65" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2017,12 +2017,12 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="63" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2047,12 +2047,12 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="65" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2246,11 +2246,11 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2304,11 +2304,11 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="F24" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="57">
         <v>44505</v>
       </c>
       <c r="H24" s="1"/>
@@ -29897,7 +29897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -29970,22 +29970,22 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="72"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -29997,9 +29997,9 @@
       <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
@@ -30037,8 +30037,8 @@
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
@@ -30064,8 +30064,8 @@
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="18" t="s">
         <v>31</v>
       </c>
@@ -30091,8 +30091,8 @@
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
@@ -30118,8 +30118,8 @@
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="18" t="s">
         <v>31</v>
       </c>
@@ -30145,8 +30145,8 @@
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
@@ -30172,8 +30172,8 @@
       <c r="A10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
@@ -30199,8 +30199,8 @@
       <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
@@ -30226,8 +30226,8 @@
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
@@ -30253,8 +30253,8 @@
       <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="18" t="s">
         <v>31</v>
       </c>
@@ -30280,8 +30280,8 @@
       <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
@@ -30299,8 +30299,8 @@
       <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
@@ -30318,8 +30318,8 @@
       <c r="A16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
@@ -30337,8 +30337,8 @@
       <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="18" t="s">
         <v>31</v>
       </c>
@@ -30356,8 +30356,8 @@
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="18" t="s">
         <v>31</v>
       </c>
@@ -30375,8 +30375,8 @@
       <c r="A19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="18" t="s">
         <v>31</v>
       </c>
@@ -30394,8 +30394,8 @@
       <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="18" t="s">
         <v>31</v>
       </c>
@@ -30413,8 +30413,8 @@
       <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="18" t="s">
         <v>31</v>
       </c>
@@ -30432,8 +30432,8 @@
       <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="18" t="s">
         <v>31</v>
       </c>
@@ -30451,8 +30451,8 @@
       <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="18" t="s">
         <v>31</v>
       </c>
@@ -31445,6 +31445,17 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:K2"/>
     <mergeCell ref="B19:C19"/>
@@ -31458,17 +31469,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="36" orientation="portrait"/>
@@ -31504,7 +31504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -31549,35 +31549,35 @@
       <c r="A2" s="71"/>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="86" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
@@ -33030,12 +33030,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
@@ -33295,11 +33295,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
@@ -33334,7 +33334,7 @@
         <f t="shared" si="1"/>
         <v>20880</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="56">
         <f t="shared" si="1"/>
         <v>20880</v>
       </c>
